--- a/Department of Agriculture.xlsx
+++ b/Department of Agriculture.xlsx
@@ -434,26 +434,40 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ull</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Bureau</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Investment Title</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>spending</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>CIO Rating</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>of Projects</t>
+        </is>
       </c>
     </row>
     <row r="2">

--- a/Department of Agriculture.xlsx
+++ b/Department of Agriculture.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ull</t>
+          <t>uii</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
